--- a/genshin/500439350132805498_2021-03-10_14-00-16.xlsx
+++ b/genshin/500439350132805498_2021-03-10_14-00-16.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>4300696965</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-06-11 16:29:49</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44358.68737268518</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -606,10 +620,8 @@
           <t>4300696965</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-06-11 14:02:01</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44358.5847337963</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -677,10 +689,8 @@
           <t>4626452821</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-05-26 23:00:42</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44342.95881944444</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -756,10 +766,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-05-26 23:00:18</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44342.95854166667</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -835,10 +843,8 @@
           <t>4300696965</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-05-07 23:01:08</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44323.95912037037</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -914,10 +920,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-05-07 18:26:00</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44323.76805555556</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -993,10 +997,8 @@
           <t>4300696965</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-05-07 10:05:40</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44323.42060185185</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1068,10 +1070,8 @@
           <t>4300696965</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-05-07 09:23:30</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44323.39131944445</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1135,10 +1135,8 @@
           <t>4300696965</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-05-07 09:20:14</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44323.38905092593</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1210,10 +1208,8 @@
           <t>4300696965</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-05-07 09:18:46</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44323.38803240741</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1277,10 +1273,8 @@
           <t>4300696965</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-05-07 09:15:28</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44323.38574074074</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1352,10 +1346,8 @@
           <t>4300696965</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-05-07 09:07:25</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44323.38015046297</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1419,10 +1411,8 @@
           <t>4300696965</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-05-06 23:38:17</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44322.98491898148</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1494,10 +1484,8 @@
           <t>4300696965</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-05-06 23:37:56</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44322.98467592592</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1569,10 +1557,8 @@
           <t>4512223615</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-05-04 16:05:33</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44320.67052083334</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1644,10 +1630,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-04-26 11:29:01</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44312.47848379629</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1719,10 +1703,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-04-17 15:14:51</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44303.6353125</v>
       </c>
       <c r="I18" t="n">
         <v>1</v>
@@ -1790,10 +1772,8 @@
           <t>4300696965</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-04-15 12:06:49</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44301.5047337963</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1861,10 +1841,8 @@
           <t>4300696965</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-04-13 01:03:55</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44299.04438657407</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1940,10 +1918,8 @@
           <t>4300696965</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-04-05 17:36:55</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44291.73396990741</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2011,10 +1987,8 @@
           <t>4300696965</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-04-05 14:06:20</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44291.58773148148</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2078,10 +2052,8 @@
           <t>4364169346</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-04-04 17:40:34</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44290.73650462963</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2141,10 +2113,8 @@
           <t>4362826894</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-04-04 12:41:12</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44290.52861111111</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2208,10 +2178,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-04-04 12:40:36</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44290.52819444444</v>
       </c>
       <c r="I25" t="n">
         <v>1</v>
@@ -2275,10 +2243,8 @@
           <t>4300696965</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-04-04 09:39:29</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44290.40241898148</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2342,10 +2308,8 @@
           <t>4300696965</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-04-04 01:12:24</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44290.05027777778</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2413,10 +2377,8 @@
           <t>4300696965</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-04-04 01:11:52</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44290.04990740741</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2484,10 +2446,8 @@
           <t>4300696965</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-04-03 23:45:01</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44289.98959490741</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2551,10 +2511,8 @@
           <t>4300696965</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-04-03 20:01:53</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44289.83464120371</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2622,10 +2580,8 @@
           <t>4300696965</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-04-03 19:40:04</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44289.81949074074</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2689,10 +2645,8 @@
           <t>4300696965</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-04-03 19:39:45</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44289.81927083333</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2756,10 +2710,8 @@
           <t>4300696965</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-04-03 12:01:44</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44289.5012037037</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2827,10 +2779,8 @@
           <t>4300696965</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-04-01 17:38:46</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44287.73525462963</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2894,10 +2844,8 @@
           <t>4300696965</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-04-01 17:30:34</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44287.72956018519</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -2965,10 +2913,8 @@
           <t>4300696965</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-04-01 14:10:52</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44287.59087962963</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3032,10 +2978,8 @@
           <t>4300696965</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-04-01 12:13:42</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44287.50951388889</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3103,10 +3047,8 @@
           <t>4300696965</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-03-22 18:39:22</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44277.77733796297</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3170,10 +3112,8 @@
           <t>4268450515</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-03-22 15:23:39</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44277.64142361111</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3245,10 +3185,8 @@
           <t>4300696965</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-03-22 12:06:13</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44277.50431712963</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3316,10 +3254,8 @@
           <t>4268443698</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-03-22 08:25:18</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44277.35090277778</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3387,10 +3323,8 @@
           <t>4268443698</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-03-22 07:12:41</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44277.30047453703</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3454,10 +3388,8 @@
           <t>4268443698</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-03-22 06:51:55</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44277.28605324074</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3525,10 +3457,8 @@
           <t>4268443698</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-03-21 22:19:40</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44276.93032407408</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3592,10 +3522,8 @@
           <t>4268450515</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-03-21 22:19:20</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44276.93009259259</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3659,10 +3587,8 @@
           <t>4268443698</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-03-20 23:11:59</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44275.96665509259</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3726,10 +3652,8 @@
           <t>4268443698</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-03-20 19:03:53</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44275.79436342593</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3797,10 +3721,8 @@
           <t>4268443698</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-03-19 23:52:16</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44274.99462962963</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3864,10 +3786,8 @@
           <t>4268443698</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-03-19 23:43:08</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44274.98828703703</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -3939,10 +3859,8 @@
           <t>4286745502</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-03-19 15:23:34</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44274.64136574074</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4018,10 +3936,8 @@
           <t>4281026476</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-03-18 09:19:33</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44273.38857638889</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4093,10 +4009,8 @@
           <t>4281026476</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-03-18 08:49:46</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44273.36789351852</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4160,10 +4074,8 @@
           <t>4268450515</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:16:04</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44270.76115740741</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4227,10 +4139,8 @@
           <t>4268450515</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-03-15 18:09:20</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44270.75648148148</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4302,10 +4212,8 @@
           <t>4268443698</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-03-15 11:48:44</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44270.49217592592</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4369,10 +4277,8 @@
           <t>4268450515</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-03-15 10:30:21</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44270.43774305555</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4436,10 +4342,8 @@
           <t>4268450025</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-03-15 10:29:49</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44270.43737268518</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4503,10 +4407,8 @@
           <t>4268443698</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-03-15 10:29:23</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44270.43707175926</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4570,10 +4472,8 @@
           <t>4245863241</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-03-14 22:57:31</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44269.9566087963</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4649,10 +4549,8 @@
           <t>4265307667</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-03-14 17:21:06</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44269.72298611111</v>
       </c>
       <c r="I60" t="n">
         <v>1</v>
@@ -4716,10 +4614,8 @@
           <t>4265307667</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-03-14 16:53:02</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44269.70349537037</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4787,10 +4683,8 @@
           <t>4265007381</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-03-14 15:40:52</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44269.65337962963</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -4854,10 +4748,8 @@
           <t>4245954915</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-03-14 13:31:15</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44269.56336805555</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -4925,10 +4817,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-03-13 11:19:51</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44268.47211805556</v>
       </c>
       <c r="I64" t="n">
         <v>2</v>
@@ -4992,10 +4882,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-03-13 08:21:24</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44268.34819444444</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5063,10 +4951,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-03-13 01:40:29</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44268.06978009259</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5134,10 +5020,8 @@
           <t>4245898071</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-03-12 18:50:38</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44267.78516203703</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5213,10 +5097,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-03-12 17:33:19</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44267.7314699074</v>
       </c>
       <c r="I68" t="n">
         <v>1</v>
@@ -5284,10 +5166,8 @@
           <t>4254642260</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-03-12 15:24:49</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44267.64223379629</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5351,10 +5231,8 @@
           <t>4253660540</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:45:24</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44267.44819444444</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5418,10 +5296,8 @@
           <t>4245879400</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:43:24</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44267.44680555556</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5485,10 +5361,8 @@
           <t>4245879400</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:39:58</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44267.4444212963</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5552,10 +5426,8 @@
           <t>4253325488</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-03-12 08:34:14</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44267.35710648148</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5631,10 +5503,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-03-12 02:04:21</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44267.08635416667</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5716,10 +5586,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-03-12 01:48:14</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44267.07516203704</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -5795,10 +5663,8 @@
           <t>4251850613</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-03-11 21:37:37</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44266.90112268519</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -5866,10 +5732,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-03-11 19:04:35</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44266.79484953704</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -5933,10 +5797,8 @@
           <t>4250557864</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-03-11 16:37:13</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44266.69251157407</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6000,10 +5862,8 @@
           <t>4250471635</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-03-11 16:07:37</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44266.67195601852</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6079,10 +5939,8 @@
           <t>4246047432</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-03-11 14:51:09</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44266.61885416666</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6154,10 +6012,8 @@
           <t>4246047432</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-03-11 14:50:42</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44266.61854166666</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6229,10 +6085,8 @@
           <t>4246047432</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-03-11 14:40:11</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44266.61123842592</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6308,10 +6162,8 @@
           <t>4246019216</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-03-11 12:26:59</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44266.51873842593</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6387,10 +6239,8 @@
           <t>4245879400</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-03-11 12:13:31</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44266.50938657407</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6454,10 +6304,8 @@
           <t>4249006958</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-03-11 08:07:14</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44266.33835648148</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6521,10 +6369,8 @@
           <t>4246278074</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-03-11 08:00:29</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44266.33366898148</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6596,10 +6442,8 @@
           <t>4246047432</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-03-11 07:55:00</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44266.32986111111</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6671,10 +6515,8 @@
           <t>4245863241</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-03-11 07:14:22</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44266.30164351852</v>
       </c>
       <c r="I88" t="n">
         <v>1</v>
@@ -6746,10 +6588,8 @@
           <t>4248281702</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-03-11 04:36:40</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44266.19212962963</v>
       </c>
       <c r="I89" t="n">
         <v>1</v>
@@ -6817,10 +6657,8 @@
           <t>4248738428</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-03-11 02:47:05</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44266.11603009259</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -6888,10 +6726,8 @@
           <t>4246278074</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-03-11 02:10:10</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44266.09039351852</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -6955,10 +6791,8 @@
           <t>4248637502</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-03-11 01:38:23</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44266.06832175926</v>
       </c>
       <c r="I92" t="n">
         <v>2</v>
@@ -7022,10 +6856,8 @@
           <t>4245791973</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-03-11 01:06:43</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44266.04633101852</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7089,10 +6921,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-03-11 00:22:36</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44266.01569444445</v>
       </c>
       <c r="I94" t="n">
         <v>2</v>
@@ -7160,10 +6990,8 @@
           <t>4248404107</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-03-11 00:21:40</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44266.0150462963</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7239,10 +7067,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-03-11 00:21:39</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44266.01503472222</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7310,10 +7136,8 @@
           <t>4248404107</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-03-11 00:19:50</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44266.01377314814</v>
       </c>
       <c r="I97" t="n">
         <v>2</v>
@@ -7385,10 +7209,8 @@
           <t>4248281702</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-03-10 23:52:23</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44265.99471064815</v>
       </c>
       <c r="I98" t="n">
         <v>9</v>
@@ -7460,10 +7282,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-03-10 23:26:28</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44265.97671296296</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7529,10 +7349,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-03-10 23:22:25</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44265.97390046297</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7596,10 +7414,8 @@
           <t>4245791973</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-03-10 23:21:37</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44265.9733449074</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7671,10 +7487,8 @@
           <t>4245791973</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-03-10 23:19:02</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44265.97155092593</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7746,10 +7560,8 @@
           <t>4245879400</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-03-10 23:12:35</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44265.96707175926</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -7825,10 +7637,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-03-10 22:57:47</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44265.95679398148</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -7888,10 +7698,8 @@
           <t>4246047432</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-03-10 22:51:57</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44265.95274305555</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -7967,10 +7775,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-03-10 22:51:28</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44265.95240740741</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8046,10 +7852,8 @@
           <t>4246047432</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-03-10 22:47:08</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44265.94939814815</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8121,10 +7925,8 @@
           <t>4245879400</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-03-10 22:45:18</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44265.948125</v>
       </c>
       <c r="I108" t="n">
         <v>1</v>
@@ -8196,10 +7998,8 @@
           <t>4245863241</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-03-10 22:42:39</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44265.94628472222</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8263,10 +8063,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-03-10 22:37:46</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44265.94289351852</v>
       </c>
       <c r="I110" t="n">
         <v>1</v>
@@ -8338,10 +8136,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-03-10 22:24:32</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44265.9337037037</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8413,10 +8209,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-03-10 22:20:39</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44265.93100694445</v>
       </c>
       <c r="I112" t="n">
         <v>2</v>
@@ -8492,10 +8286,8 @@
           <t>4247711462</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-03-10 22:05:30</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44265.92048611111</v>
       </c>
       <c r="I113" t="n">
         <v>1</v>
@@ -8563,10 +8355,8 @@
           <t>4245879400</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-03-10 21:44:16</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44265.90574074074</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8626,10 +8416,8 @@
           <t>4247557032</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-03-10 21:44:01</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44265.90556712963</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8694,10 +8482,8 @@
           <t>4247557032</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-03-10 21:42:20</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44265.90439814814</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -8761,10 +8547,8 @@
           <t>4247557032</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-03-10 21:35:19</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44265.89952546296</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -8829,10 +8613,8 @@
           <t>4245863241</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-03-10 21:04:10</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44265.87789351852</v>
       </c>
       <c r="I118" t="n">
         <v>1</v>
@@ -8896,10 +8678,8 @@
           <t>4245879400</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-03-10 21:01:35</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44265.87609953704</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -8963,10 +8743,8 @@
           <t>4247322948</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-03-10 20:48:54</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44265.86729166667</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9030,10 +8808,8 @@
           <t>4245898071</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-03-10 20:36:40</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44265.8587962963</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9105,10 +8881,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-03-10 20:34:58</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44265.85761574074</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9176,10 +8950,8 @@
           <t>4247249119</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-03-10 20:33:16</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44265.85643518518</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9247,10 +9019,8 @@
           <t>4247196891</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-03-10 20:22:09</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44265.84871527777</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9326,10 +9096,8 @@
           <t>4246424028</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-03-10 20:20:40</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44265.84768518519</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9405,10 +9173,8 @@
           <t>4246278074</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-03-10 19:46:37</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44265.82403935185</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9472,10 +9238,8 @@
           <t>4245895961</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-03-10 19:40:52</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44265.8200462963</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9547,10 +9311,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-03-10 19:38:40</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44265.81851851852</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9614,10 +9376,8 @@
           <t>4246950930</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-03-10 19:28:28</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44265.81143518518</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -9693,10 +9453,8 @@
           <t>4246424028</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-03-10 19:25:41</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44265.80950231481</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -9764,10 +9522,8 @@
           <t>4245879400</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-03-10 19:15:01</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44265.80209490741</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -9840,10 +9596,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-03-10 19:09:41</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44265.7983912037</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -9915,10 +9669,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-03-10 19:06:53</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44265.79644675926</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -9994,10 +9746,8 @@
           <t>4245879400</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:59:27</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44265.79128472223</v>
       </c>
       <c r="I134" t="n">
         <v>1</v>
@@ -10061,10 +9811,8 @@
           <t>4245879400</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:48:46</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44265.78386574074</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10124,10 +9872,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:43:20</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44265.78009259259</v>
       </c>
       <c r="I136" t="n">
         <v>1</v>
@@ -10187,10 +9933,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:42:02</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44265.77918981481</v>
       </c>
       <c r="I137" t="n">
         <v>1</v>
@@ -10266,10 +10010,8 @@
           <t>4246698466</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:36:09</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44265.77510416666</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10341,10 +10083,8 @@
           <t>4246424028</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:34:51</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44265.77420138889</v>
       </c>
       <c r="I139" t="n">
         <v>1</v>
@@ -10408,10 +10148,8 @@
           <t>4246644695</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:25:10</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44265.76747685186</v>
       </c>
       <c r="I140" t="n">
         <v>3</v>
@@ -10475,10 +10213,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:24:25</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44265.76695601852</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10546,10 +10282,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:18:00</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44265.7625</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10613,10 +10347,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:15:55</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44265.76105324074</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10688,10 +10420,8 @@
           <t>4245768536</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:13:43</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44265.75952546296</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -10759,10 +10489,8 @@
           <t>4245791973</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:12:56</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44265.75898148148</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -10826,10 +10554,8 @@
           <t>4246577949</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:09:48</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44265.75680555555</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -10901,10 +10627,8 @@
           <t>4246125179</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:08:29</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44265.75589120371</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -10976,10 +10700,8 @@
           <t>4245879400</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:05:52</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44265.75407407407</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11047,10 +10769,8 @@
           <t>4245802169</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:04:40</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44265.75324074074</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11114,10 +10834,8 @@
           <t>4246518689</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-03-10 17:57:04</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44265.74796296296</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11181,10 +10899,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-03-10 17:55:19</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44265.74674768518</v>
       </c>
       <c r="I151" t="n">
         <v>1</v>
@@ -11256,10 +10972,8 @@
           <t>4246501718</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-03-10 17:52:19</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44265.74466435185</v>
       </c>
       <c r="I152" t="n">
         <v>1</v>
@@ -11323,10 +11037,8 @@
           <t>4246499655</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-03-10 17:52:17</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44265.7446412037</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11390,10 +11102,8 @@
           <t>4246278074</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-03-10 17:52:16</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44265.74462962963</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11461,10 +11171,8 @@
           <t>4246484809</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-03-10 17:48:59</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44265.74234953704</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11524,10 +11232,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-03-10 17:48:49</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44265.7422337963</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -11599,10 +11305,8 @@
           <t>4245802169</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-03-10 17:44:35</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44265.73929398148</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -11666,10 +11370,8 @@
           <t>4246457439</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-03-10 17:42:19</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44265.73771990741</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -11745,10 +11447,8 @@
           <t>4246456754</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-03-10 17:41:50</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44265.73738425926</v>
       </c>
       <c r="I159" t="n">
         <v>1</v>
@@ -11816,10 +11516,8 @@
           <t>4246454071</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-03-10 17:41:28</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44265.73712962963</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -11895,10 +11593,8 @@
           <t>4246444184</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-03-10 17:39:55</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44265.73605324074</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -11962,10 +11658,8 @@
           <t>4246436293</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-03-10 17:35:46</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44265.7331712963</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12041,10 +11735,8 @@
           <t>4246424028</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-03-10 17:34:06</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44265.73201388889</v>
       </c>
       <c r="I163" t="n">
         <v>73</v>
@@ -12112,10 +11804,8 @@
           <t>4246415950</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-03-10 17:30:14</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44265.7293287037</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12183,10 +11873,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-03-10 17:29:47</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44265.7290162037</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12262,10 +11950,8 @@
           <t>4245772668</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-03-10 17:29:36</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44265.72888888889</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12337,10 +12023,8 @@
           <t>4245990909</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-03-10 17:28:01</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44265.72778935185</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12412,10 +12096,8 @@
           <t>4245802169</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-03-10 17:27:32</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44265.7274537037</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12483,10 +12165,8 @@
           <t>4246278074</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-03-10 17:27:12</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44265.72722222222</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12554,10 +12234,8 @@
           <t>4246394085</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-03-10 17:26:34</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44265.72678240741</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -12633,10 +12311,8 @@
           <t>4246278074</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-03-10 17:23:47</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44265.72484953704</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -12704,10 +12380,8 @@
           <t>4246390170</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-03-10 17:23:34</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44265.72469907408</v>
       </c>
       <c r="I172" t="n">
         <v>3</v>
@@ -12783,10 +12457,8 @@
           <t>4245863241</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-03-10 17:20:25</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44265.72251157407</v>
       </c>
       <c r="I173" t="n">
         <v>5</v>
@@ -12854,10 +12526,8 @@
           <t>4246375706</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-03-10 17:20:09</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44265.72232638889</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -12925,10 +12595,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-03-10 17:16:49</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44265.72001157407</v>
       </c>
       <c r="I175" t="n">
         <v>1</v>
@@ -12996,10 +12664,8 @@
           <t>4246356823</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-03-10 17:15:21</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44265.71899305555</v>
       </c>
       <c r="I176" t="n">
         <v>20</v>
@@ -13071,10 +12737,8 @@
           <t>4246339726</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-03-10 17:13:32</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44265.71773148148</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13142,10 +12806,8 @@
           <t>4246337505</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-03-10 17:11:47</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44265.71651620371</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13221,10 +12883,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-03-10 17:11:06</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44265.71604166667</v>
       </c>
       <c r="I179" t="n">
         <v>334</v>
@@ -13300,10 +12960,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-03-10 17:04:40</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44265.71157407408</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13373,10 +13031,8 @@
           <t>4246278074</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-03-10 17:01:44</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44265.70953703704</v>
       </c>
       <c r="I181" t="n">
         <v>7</v>
@@ -13440,10 +13096,8 @@
           <t>4245879400</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-03-10 17:01:04</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44265.70907407408</v>
       </c>
       <c r="I182" t="n">
         <v>2</v>
@@ -13515,10 +13169,8 @@
           <t>4246288786</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-03-10 16:58:33</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44265.70732638889</v>
       </c>
       <c r="I183" t="n">
         <v>1</v>
@@ -13595,10 +13247,8 @@
           <t>4245863241</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-03-10 16:58:19</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44265.70716435185</v>
       </c>
       <c r="I184" t="n">
         <v>1</v>
@@ -13670,10 +13320,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-03-10 16:57:12</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44265.70638888889</v>
       </c>
       <c r="I185" t="n">
         <v>2</v>
@@ -13749,10 +13397,8 @@
           <t>4246283984</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-03-10 16:56:40</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44265.70601851852</v>
       </c>
       <c r="I186" t="n">
         <v>22</v>
@@ -13829,10 +13475,8 @@
           <t>4246278074</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-03-10 16:55:31</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44265.70521990741</v>
       </c>
       <c r="I187" t="n">
         <v>1</v>
@@ -13896,10 +13540,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-03-10 16:50:36</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44265.70180555555</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -13967,10 +13609,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-03-10 16:49:13</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44265.70084490741</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14038,10 +13678,8 @@
           <t>4245885692</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-03-10 16:49:09</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44265.70079861111</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14117,10 +13755,8 @@
           <t>4246256394</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-03-10 16:47:39</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44265.69975694444</v>
       </c>
       <c r="I191" t="n">
         <v>2</v>
@@ -14188,10 +13824,8 @@
           <t>4245879400</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-03-10 16:44:03</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44265.69725694445</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -14255,10 +13889,8 @@
           <t>4246241813</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-03-10 16:43:37</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44265.69695601852</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14330,10 +13962,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-03-10 16:43:23</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44265.69679398148</v>
       </c>
       <c r="I194" t="n">
         <v>1</v>
@@ -14405,10 +14035,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-03-10 16:43:22</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44265.69678240741</v>
       </c>
       <c r="I195" t="n">
         <v>31</v>
@@ -14484,10 +14112,8 @@
           <t>4246233454</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-03-10 16:42:39</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44265.69628472222</v>
       </c>
       <c r="I196" t="n">
         <v>12</v>
@@ -14555,10 +14181,8 @@
           <t>4246237972</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-03-10 16:42:25</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44265.69612268519</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -14626,10 +14250,8 @@
           <t>4246236555</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-03-10 16:41:08</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44265.69523148148</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -14701,10 +14323,8 @@
           <t>4246224371</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-03-10 16:39:10</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44265.69386574074</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -14780,10 +14400,8 @@
           <t>4245879400</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-03-10 16:38:47</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44265.69359953704</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -14856,10 +14474,8 @@
           <t>4246225869</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-03-10 16:38:12</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44265.69319444444</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -14935,10 +14551,8 @@
           <t>4246221779</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-03-10 16:36:42</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44265.69215277778</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -15006,10 +14620,8 @@
           <t>4246214184</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-03-10 16:36:38</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44265.69210648148</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -15073,10 +14685,8 @@
           <t>4245802169</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-03-10 16:24:38</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44265.68377314815</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15144,10 +14754,8 @@
           <t>4246178482</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-03-10 16:24:22</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44265.68358796297</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
@@ -15215,10 +14823,8 @@
           <t>4246172521</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-03-10 16:23:21</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44265.68288194444</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -15290,10 +14896,8 @@
           <t>4246177282</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-03-10 16:23:16</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44265.68282407407</v>
       </c>
       <c r="I207" t="n">
         <v>1</v>
@@ -15365,10 +14969,8 @@
           <t>4245772668</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-03-10 16:23:03</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44265.68267361111</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15444,10 +15046,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-03-10 16:20:38</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44265.68099537037</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -15511,10 +15111,8 @@
           <t>4246158276</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-03-10 16:19:20</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44265.68009259259</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -15586,10 +15184,8 @@
           <t>4245879400</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-03-10 16:18:44</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44265.67967592592</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
@@ -15661,10 +15257,8 @@
           <t>4246162399</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-03-10 16:18:39</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44265.67961805555</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -15728,10 +15322,8 @@
           <t>4246153223</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-03-10 16:17:07</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44265.67855324074</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -15799,10 +15391,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-03-10 16:14:04</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44265.67643518518</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
@@ -15862,10 +15452,8 @@
           <t>4245879400</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-03-10 16:13:48</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44265.67625</v>
       </c>
       <c r="I215" t="n">
         <v>2</v>
@@ -15941,10 +15529,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-03-10 16:13:27</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44265.67600694444</v>
       </c>
       <c r="I216" t="n">
         <v>710</v>
@@ -16012,10 +15598,8 @@
           <t>4246146145</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-03-10 16:12:52</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44265.67560185185</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -16091,10 +15675,8 @@
           <t>4245863241</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-03-10 16:11:53</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44265.67491898148</v>
       </c>
       <c r="I218" t="n">
         <v>1</v>
@@ -16158,10 +15740,8 @@
           <t>4246128426</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-03-10 16:10:09</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44265.67371527778</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -16233,10 +15813,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-03-10 16:09:26</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44265.67321759259</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -16308,10 +15886,8 @@
           <t>4246125179</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-03-10 16:07:10</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44265.67164351852</v>
       </c>
       <c r="I221" t="n">
         <v>1</v>
@@ -16379,10 +15955,8 @@
           <t>4245879400</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-03-10 16:07:09</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44265.67163194445</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16458,10 +16032,8 @@
           <t>4245879400</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-03-10 16:05:24</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44265.67041666667</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16533,10 +16105,8 @@
           <t>4246113143</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-03-10 16:05:23</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44265.67040509259</v>
       </c>
       <c r="I224" t="n">
         <v>5</v>
@@ -16600,10 +16170,8 @@
           <t>4246118174</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-03-10 16:05:20</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44265.67037037037</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -16679,10 +16247,8 @@
           <t>4246098324</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-03-10 16:00:49</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44265.6672337963</v>
       </c>
       <c r="I226" t="n">
         <v>1</v>
@@ -16754,10 +16320,8 @@
           <t>4246101919</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-03-10 15:59:33</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44265.66635416666</v>
       </c>
       <c r="I227" t="n">
         <v>1</v>
@@ -16821,10 +16385,8 @@
           <t>4245802169</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-03-10 15:57:19</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44265.66480324074</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
@@ -16892,10 +16454,8 @@
           <t>4246073964</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-03-10 15:51:38</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44265.66085648148</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -16963,10 +16523,8 @@
           <t>4246064808</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-03-10 15:50:07</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44265.65980324074</v>
       </c>
       <c r="I230" t="n">
         <v>1</v>
@@ -17042,10 +16600,8 @@
           <t>4246067061</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-03-10 15:49:20</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44265.65925925926</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
@@ -17109,10 +16665,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-03-10 15:48:21</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44265.65857638889</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -17180,10 +16734,8 @@
           <t>4245879400</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-03-10 15:47:17</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44265.65783564815</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -17259,10 +16811,8 @@
           <t>4245879400</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-03-10 15:47:07</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44265.65771990741</v>
       </c>
       <c r="I234" t="n">
         <v>2</v>
@@ -17329,10 +16879,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-03-10 15:46:48</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44265.6575</v>
       </c>
       <c r="I235" t="n">
         <v>233</v>
@@ -17396,10 +16944,8 @@
           <t>4245879400</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-03-10 15:43:14</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44265.65502314815</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
@@ -17467,10 +17013,8 @@
           <t>4246047432</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-03-10 15:42:45</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44265.6546875</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
@@ -17546,10 +17090,8 @@
           <t>4245879400</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-03-10 15:42:05</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44265.65422453704</v>
       </c>
       <c r="I238" t="n">
         <v>4</v>
@@ -17609,10 +17151,8 @@
           <t>4245879400</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-03-10 15:41:55</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44265.6541087963</v>
       </c>
       <c r="I239" t="n">
         <v>1</v>
@@ -17688,10 +17228,8 @@
           <t>4245802169</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-03-10 15:40:58</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44265.65344907407</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
@@ -17755,10 +17293,8 @@
           <t>4245772668</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-03-10 15:40:44</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44265.65328703704</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -17826,10 +17362,8 @@
           <t>4245879400</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-03-10 15:39:54</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44265.65270833333</v>
       </c>
       <c r="I242" t="n">
         <v>1</v>
@@ -17897,10 +17431,8 @@
           <t>4245863241</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-03-10 15:39:49</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44265.65265046297</v>
       </c>
       <c r="I243" t="n">
         <v>2</v>
@@ -17972,10 +17504,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-03-10 15:37:45</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44265.65121527778</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -18050,10 +17580,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-03-10 15:37:44</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44265.6512037037</v>
       </c>
       <c r="I245" t="n">
         <v>78</v>
@@ -18125,10 +17653,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-03-10 15:37:16</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44265.65087962963</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
@@ -18196,10 +17722,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-03-10 15:36:50</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44265.6505787037</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -18263,10 +17787,8 @@
           <t>4245863241</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-03-10 15:36:46</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44265.65053240741</v>
       </c>
       <c r="I248" t="n">
         <v>3</v>
@@ -18334,10 +17856,8 @@
           <t>4245863241</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-03-10 15:34:41</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44265.64908564815</v>
       </c>
       <c r="I249" t="n">
         <v>2</v>
@@ -18409,10 +17929,8 @@
           <t>4245802169</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-03-10 15:34:38</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44265.64905092592</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -18476,10 +17994,8 @@
           <t>4246019216</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-03-10 15:34:18</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44265.64881944445</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
@@ -18555,10 +18071,8 @@
           <t>4246026125</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-03-10 15:33:37</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44265.64834490741</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
@@ -18630,10 +18144,8 @@
           <t>4245863241</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-03-10 15:32:33</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44265.64760416667</v>
       </c>
       <c r="I253" t="n">
         <v>1</v>
@@ -18709,10 +18221,8 @@
           <t>4245879400</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-03-10 15:31:50</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44265.64710648148</v>
       </c>
       <c r="I254" t="n">
         <v>1</v>
@@ -18785,10 +18295,8 @@
           <t>4245772668</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-03-10 15:31:50</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44265.64710648148</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -18852,10 +18360,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-03-10 15:31:37</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44265.64695601852</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -18927,10 +18433,8 @@
           <t>4245879400</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-03-10 15:30:18</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44265.64604166667</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
@@ -19005,10 +18509,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-03-10 15:29:09</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44265.64524305556</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
@@ -19072,10 +18574,8 @@
           <t>4245772668</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-03-10 15:28:39</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44265.64489583333</v>
       </c>
       <c r="I259" t="n">
         <v>1</v>
@@ -19147,10 +18647,8 @@
           <t>4246010101</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-03-10 15:27:28</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44265.64407407407</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
@@ -19217,10 +18715,8 @@
           <t>4246005532</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-03-10 15:26:59</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44265.64373842593</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -19296,10 +18792,8 @@
           <t>4246002020</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-03-10 15:26:42</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44265.64354166666</v>
       </c>
       <c r="I262" t="n">
         <v>11</v>
@@ -19366,10 +18860,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-03-10 15:25:39</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44265.6428125</v>
       </c>
       <c r="I263" t="n">
         <v>12</v>
@@ -19441,10 +18933,8 @@
           <t>4245879400</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-03-10 15:24:19</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44265.64188657407</v>
       </c>
       <c r="I264" t="n">
         <v>11</v>
@@ -19508,10 +18998,8 @@
           <t>4245991691</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-03-10 15:22:51</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44265.64086805555</v>
       </c>
       <c r="I265" t="n">
         <v>2</v>
@@ -19579,10 +19067,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-03-10 15:22:31</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44265.64063657408</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -19646,10 +19132,8 @@
           <t>4245995027</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-03-10 15:22:05</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44265.64033564815</v>
       </c>
       <c r="I267" t="n">
         <v>5</v>
@@ -19721,10 +19205,8 @@
           <t>4245990909</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-03-10 15:22:00</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44265.64027777778</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
@@ -19792,10 +19274,8 @@
           <t>4245987099</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-03-10 15:21:29</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44265.63991898148</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
@@ -19873,10 +19353,8 @@
           <t>4245802169</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-03-10 15:21:22</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44265.63983796296</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
@@ -19944,10 +19422,8 @@
           <t>4245954915</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-03-10 15:20:47</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44265.63943287037</v>
       </c>
       <c r="I271" t="n">
         <v>3</v>
@@ -20016,10 +19492,8 @@
           <t>4245979426</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-03-10 15:20:27</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44265.63920138889</v>
       </c>
       <c r="I272" t="n">
         <v>5</v>
@@ -20091,10 +19565,8 @@
           <t>4245979411</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-03-10 15:20:26</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44265.63918981481</v>
       </c>
       <c r="I273" t="n">
         <v>10</v>
@@ -20170,10 +19642,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-03-10 15:19:45</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44265.63871527778</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
@@ -20237,10 +19707,8 @@
           <t>4245802169</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-03-10 15:17:56</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44265.6374537037</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
@@ -20308,10 +19776,8 @@
           <t>4245954915</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-03-10 15:17:06</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44265.636875</v>
       </c>
       <c r="I276" t="n">
         <v>5</v>
@@ -20383,10 +19849,8 @@
           <t>4245863241</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-03-10 15:16:56</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44265.63675925926</v>
       </c>
       <c r="I277" t="n">
         <v>6</v>
@@ -20462,10 +19926,8 @@
           <t>4245975696</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-03-10 15:16:32</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44265.63648148148</v>
       </c>
       <c r="I278" t="n">
         <v>2</v>
@@ -20529,10 +19991,8 @@
           <t>4245863241</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-03-10 15:16:22</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44265.63636574074</v>
       </c>
       <c r="I279" t="n">
         <v>2</v>
@@ -20596,10 +20056,8 @@
           <t>4245975019</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-03-10 15:15:51</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44265.63600694444</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
@@ -20663,10 +20121,8 @@
           <t>4245791973</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-03-10 15:15:28</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44265.63574074074</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
@@ -20738,10 +20194,8 @@
           <t>4245863241</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-03-10 15:14:49</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44265.63528935185</v>
       </c>
       <c r="I282" t="n">
         <v>3</v>
@@ -20813,10 +20267,8 @@
           <t>4245941090</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-03-10 15:12:55</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44265.63396990741</v>
       </c>
       <c r="I283" t="n">
         <v>1</v>
@@ -20892,10 +20344,8 @@
           <t>4245898071</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-03-10 15:12:47</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44265.63387731482</v>
       </c>
       <c r="I284" t="n">
         <v>13</v>
@@ -20955,10 +20405,8 @@
           <t>4245954915</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-03-10 15:11:52</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44265.63324074074</v>
       </c>
       <c r="I285" t="n">
         <v>110</v>
@@ -21025,10 +20473,8 @@
           <t>4245954843</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-03-10 15:11:48</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44265.63319444445</v>
       </c>
       <c r="I286" t="n">
         <v>25</v>
@@ -21101,10 +20547,8 @@
           <t>4245772668</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-03-10 15:10:55</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44265.63258101852</v>
       </c>
       <c r="I287" t="n">
         <v>19</v>
@@ -21168,10 +20612,8 @@
           <t>4245863241</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-03-10 15:10:20</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44265.63217592592</v>
       </c>
       <c r="I288" t="n">
         <v>49</v>
@@ -21247,10 +20689,8 @@
           <t>4245949093</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-03-10 15:09:41</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44265.63172453704</v>
       </c>
       <c r="I289" t="n">
         <v>1</v>
@@ -21318,10 +20758,8 @@
           <t>4245941090</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-03-10 15:08:45</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44265.63107638889</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
@@ -21389,10 +20827,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-03-10 15:08:11</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44265.63068287037</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
@@ -21452,10 +20888,8 @@
           <t>4245951286</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-03-10 15:08:11</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44265.63068287037</v>
       </c>
       <c r="I292" t="n">
         <v>2</v>
@@ -21523,10 +20957,8 @@
           <t>4245947484</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-03-10 15:08:04</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44265.63060185185</v>
       </c>
       <c r="I293" t="n">
         <v>1</v>
@@ -21594,10 +21026,8 @@
           <t>4245879400</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-03-10 15:07:48</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44265.63041666667</v>
       </c>
       <c r="I294" t="n">
         <v>1</v>
@@ -21669,10 +21099,8 @@
           <t>4245942570</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-03-10 15:06:34</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44265.62956018518</v>
       </c>
       <c r="I295" t="n">
         <v>1</v>
@@ -21736,10 +21164,8 @@
           <t>4245802169</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-03-10 15:06:34</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44265.62956018518</v>
       </c>
       <c r="I296" t="n">
         <v>1</v>
@@ -21815,10 +21241,8 @@
           <t>4245941983</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-03-10 15:05:56</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44265.62912037037</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
@@ -21890,10 +21314,8 @@
           <t>4245934993</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-03-10 15:05:29</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44265.62880787037</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
@@ -21965,10 +21387,8 @@
           <t>4245941090</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-03-10 15:04:59</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44265.62846064815</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
@@ -22032,10 +21452,8 @@
           <t>4245898071</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-03-10 15:04:01</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44265.62778935185</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
@@ -22111,10 +21529,8 @@
           <t>4245885692</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-03-10 15:03:51</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44265.62767361111</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
@@ -22182,10 +21598,8 @@
           <t>4245936529</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-03-10 15:03:16</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44265.62726851852</v>
       </c>
       <c r="I302" t="n">
         <v>34</v>
@@ -22257,10 +21671,8 @@
           <t>4245935981</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-03-10 15:02:42</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44265.626875</v>
       </c>
       <c r="I303" t="n">
         <v>4</v>
@@ -22324,10 +21736,8 @@
           <t>4245932191</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-03-10 15:02:36</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44265.62680555556</v>
       </c>
       <c r="I304" t="n">
         <v>1</v>
@@ -22399,10 +21809,8 @@
           <t>4245802169</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-03-10 15:01:17</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44265.6258912037</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
@@ -22479,10 +21887,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-03-10 15:00:40</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44265.62546296296</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
@@ -22550,10 +21956,8 @@
           <t>4245879400</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:59:29</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44265.62464120371</v>
       </c>
       <c r="I307" t="n">
         <v>1</v>
@@ -22625,10 +22029,8 @@
           <t>4245885692</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:58:04</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44265.62365740741</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
@@ -22692,10 +22094,8 @@
           <t>4245914191</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:57:52</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44265.62351851852</v>
       </c>
       <c r="I309" t="n">
         <v>26</v>
@@ -22763,10 +22163,8 @@
           <t>4245898071</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:56:31</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44265.62258101852</v>
       </c>
       <c r="I310" t="n">
         <v>69</v>
@@ -22838,10 +22236,8 @@
           <t>4245885692</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:55:29</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44265.62186342593</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
@@ -22917,10 +22313,8 @@
           <t>4245879400</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:53:58</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44265.62081018519</v>
       </c>
       <c r="I312" t="n">
         <v>2</v>
@@ -22988,10 +22382,8 @@
           <t>4245879400</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:52:15</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44265.61961805556</v>
       </c>
       <c r="I313" t="n">
         <v>3</v>
@@ -23070,10 +22462,8 @@
           <t>4245898071</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:51:44</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44265.61925925926</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
@@ -23149,10 +22539,8 @@
           <t>4245802169</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:51:29</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44265.61908564815</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
@@ -23212,10 +22600,8 @@
           <t>4245885692</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:50:48</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44265.61861111111</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
@@ -23284,10 +22670,8 @@
           <t>4245885692</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:50:41</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44265.61853009259</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
@@ -23356,10 +22740,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:50:19</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44265.61827546296</v>
       </c>
       <c r="I318" t="n">
         <v>1</v>
@@ -23427,10 +22809,8 @@
           <t>4245802169</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:50:05</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44265.61811342592</v>
       </c>
       <c r="I319" t="n">
         <v>1</v>
@@ -23506,10 +22886,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:50:01</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44265.61806712963</v>
       </c>
       <c r="I320" t="n">
         <v>0</v>
@@ -23577,10 +22955,8 @@
           <t>4245896325</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:49:59</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44265.61804398148</v>
       </c>
       <c r="I321" t="n">
         <v>9</v>
@@ -23648,10 +23024,8 @@
           <t>4245895961</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:49:37</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44265.61778935185</v>
       </c>
       <c r="I322" t="n">
         <v>1</v>
@@ -23715,10 +23089,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:49:26</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44265.61766203704</v>
       </c>
       <c r="I323" t="n">
         <v>44</v>
@@ -23782,10 +23154,8 @@
           <t>4245802169</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:48:54</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44265.61729166667</v>
       </c>
       <c r="I324" t="n">
         <v>1</v>
@@ -23861,10 +23231,8 @@
           <t>4245895232</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:48:51</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44265.61725694445</v>
       </c>
       <c r="I325" t="n">
         <v>1</v>
@@ -23941,10 +23309,8 @@
           <t>4245879400</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:48:29</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44265.61700231482</v>
       </c>
       <c r="I326" t="n">
         <v>11</v>
@@ -24012,10 +23378,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:48:23</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44265.61693287037</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
@@ -24087,10 +23451,8 @@
           <t>4245879400</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:48:22</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44265.6169212963</v>
       </c>
       <c r="I328" t="n">
         <v>5</v>
@@ -24163,10 +23525,8 @@
           <t>4245879400</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:47:36</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44265.61638888889</v>
       </c>
       <c r="I329" t="n">
         <v>9</v>
@@ -24230,10 +23590,8 @@
           <t>4245802169</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:47:31</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44265.61633101852</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
@@ -24297,10 +23655,8 @@
           <t>4245879400</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:47:01</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44265.6159837963</v>
       </c>
       <c r="I331" t="n">
         <v>17</v>
@@ -24368,10 +23724,8 @@
           <t>4245879400</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:46:51</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44265.61586805555</v>
       </c>
       <c r="I332" t="n">
         <v>27</v>
@@ -24439,10 +23793,8 @@
           <t>4245879400</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:46:31</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44265.61563657408</v>
       </c>
       <c r="I333" t="n">
         <v>129</v>
@@ -24514,10 +23866,8 @@
           <t>4245879400</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:45:51</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44265.61517361111</v>
       </c>
       <c r="I334" t="n">
         <v>413</v>
@@ -24585,10 +23935,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:45:36</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44265.615</v>
       </c>
       <c r="I335" t="n">
         <v>0</v>
@@ -24652,10 +24000,8 @@
           <t>4245885692</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:45:30</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44265.61493055556</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
@@ -24731,10 +24077,8 @@
           <t>4245878041</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:44:24</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44265.61416666667</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
@@ -24806,10 +24150,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:44:04</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44265.61393518518</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
@@ -24873,10 +24215,8 @@
           <t>4245863241</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:43:46</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44265.61372685185</v>
       </c>
       <c r="I339" t="n">
         <v>260</v>
@@ -24948,10 +24288,8 @@
           <t>4245772668</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:43:30</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44265.61354166667</v>
       </c>
       <c r="I340" t="n">
         <v>7</v>
@@ -25016,10 +24354,8 @@
           <t>4245873052</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:42:43</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44265.61299768519</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
@@ -25095,10 +24431,8 @@
           <t>4245863241</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:42:02</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44265.61252314815</v>
       </c>
       <c r="I342" t="n">
         <v>4</v>
@@ -25170,10 +24504,8 @@
           <t>4245875425</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:41:44</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44265.61231481482</v>
       </c>
       <c r="I343" t="n">
         <v>1</v>
@@ -25237,10 +24569,8 @@
           <t>4245863241</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:41:40</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44265.61226851852</v>
       </c>
       <c r="I344" t="n">
         <v>349</v>
@@ -25312,10 +24642,8 @@
           <t>4245871713</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:41:23</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44265.61207175926</v>
       </c>
       <c r="I345" t="n">
         <v>4</v>
@@ -25383,10 +24711,8 @@
           <t>4245802169</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:40:39</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44265.6115625</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
@@ -25454,10 +24780,8 @@
           <t>4245864164</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:40:28</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44265.61143518519</v>
       </c>
       <c r="I347" t="n">
         <v>32</v>
@@ -25533,10 +24857,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:40:22</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44265.61136574074</v>
       </c>
       <c r="I348" t="n">
         <v>1</v>
@@ -25604,10 +24926,8 @@
           <t>4245870535</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:40:11</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44265.61123842592</v>
       </c>
       <c r="I349" t="n">
         <v>1</v>
@@ -25683,10 +25003,8 @@
           <t>4245863241</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:39:59</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44265.61109953704</v>
       </c>
       <c r="I350" t="n">
         <v>133</v>
@@ -25754,10 +25072,8 @@
           <t>4245863694</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:39:58</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44265.61108796296</v>
       </c>
       <c r="I351" t="n">
         <v>1</v>
@@ -25829,10 +25145,8 @@
           <t>4245866157</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:39:42</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44265.61090277778</v>
       </c>
       <c r="I352" t="n">
         <v>2</v>
@@ -25900,10 +25214,8 @@
           <t>4245866069</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:39:37</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44265.61084490741</v>
       </c>
       <c r="I353" t="n">
         <v>2</v>
@@ -25971,10 +25283,8 @@
           <t>4245802169</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:39:30</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44265.61076388889</v>
       </c>
       <c r="I354" t="n">
         <v>3</v>
@@ -26051,10 +25361,8 @@
           <t>4245863241</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:39:29</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44265.61075231482</v>
       </c>
       <c r="I355" t="n">
         <v>17</v>
@@ -26126,10 +25434,8 @@
           <t>4245865266</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:38:47</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44265.6102662037</v>
       </c>
       <c r="I356" t="n">
         <v>10</v>
@@ -26193,10 +25499,8 @@
           <t>4245862115</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:38:21</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44265.60996527778</v>
       </c>
       <c r="I357" t="n">
         <v>7</v>
@@ -26268,10 +25572,8 @@
           <t>4245854602</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:38:08</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44265.60981481482</v>
       </c>
       <c r="I358" t="n">
         <v>1</v>
@@ -26331,10 +25633,8 @@
           <t>4245854126</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:37:40</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44265.60949074074</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
@@ -26394,10 +25694,8 @@
           <t>4245853671</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:37:13</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44265.60917824074</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
@@ -26473,10 +25771,8 @@
           <t>4245853676</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:37:13</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44265.60917824074</v>
       </c>
       <c r="I361" t="n">
         <v>2</v>
@@ -26552,10 +25848,8 @@
           <t>4245856934</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:36:40</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44265.6087962963</v>
       </c>
       <c r="I362" t="n">
         <v>0</v>
@@ -26627,10 +25921,8 @@
           <t>4245860091</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:36:21</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44265.60857638889</v>
       </c>
       <c r="I363" t="n">
         <v>2</v>
@@ -26702,10 +25994,8 @@
           <t>4245852475</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:36:00</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44265.60833333333</v>
       </c>
       <c r="I364" t="n">
         <v>35</v>
@@ -26769,10 +26059,8 @@
           <t>4245802169</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:34:55</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44265.60758101852</v>
       </c>
       <c r="I365" t="n">
         <v>7</v>
@@ -26836,10 +26124,8 @@
           <t>4245847248</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:33:31</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44265.6066087963</v>
       </c>
       <c r="I366" t="n">
         <v>2</v>
@@ -26911,10 +26197,8 @@
           <t>4245839811</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:33:20</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44265.60648148148</v>
       </c>
       <c r="I367" t="n">
         <v>1</v>
@@ -26990,10 +26274,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:33:17</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44265.60644675926</v>
       </c>
       <c r="I368" t="n">
         <v>0</v>
@@ -27068,10 +26350,8 @@
           <t>4245842837</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:32:35</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44265.60596064815</v>
       </c>
       <c r="I369" t="n">
         <v>0</v>
@@ -27135,10 +26415,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:31:11</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44265.60498842593</v>
       </c>
       <c r="I370" t="n">
         <v>0</v>
@@ -27207,10 +26485,8 @@
           <t>4245783726</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:30:15</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44265.60434027778</v>
       </c>
       <c r="I371" t="n">
         <v>9</v>
@@ -27286,10 +26562,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:30:12</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44265.60430555556</v>
       </c>
       <c r="I372" t="n">
         <v>1</v>
@@ -27365,10 +26639,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:30:07</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44265.60424768519</v>
       </c>
       <c r="I373" t="n">
         <v>0</v>
@@ -27440,10 +26712,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:29:55</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44265.60410879629</v>
       </c>
       <c r="I374" t="n">
         <v>0</v>
@@ -27515,10 +26785,8 @@
           <t>4245829660</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:29:22</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44265.60372685185</v>
       </c>
       <c r="I375" t="n">
         <v>0</v>
@@ -27594,10 +26862,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:29:06</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44265.60354166666</v>
       </c>
       <c r="I376" t="n">
         <v>0</v>
@@ -27661,10 +26927,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:28:58</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44265.60344907407</v>
       </c>
       <c r="I377" t="n">
         <v>6</v>
@@ -27736,10 +27000,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:28:44</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44265.60328703704</v>
       </c>
       <c r="I378" t="n">
         <v>0</v>
@@ -27811,10 +27073,8 @@
           <t>4245831602</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:27:48</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44265.60263888889</v>
       </c>
       <c r="I379" t="n">
         <v>2</v>
@@ -27890,10 +27150,8 @@
           <t>4245822601</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:26:06</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44265.60145833333</v>
       </c>
       <c r="I380" t="n">
         <v>4</v>
@@ -27965,10 +27223,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:24:36</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44265.60041666667</v>
       </c>
       <c r="I381" t="n">
         <v>0</v>
@@ -28040,10 +27296,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:24:30</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44265.60034722222</v>
       </c>
       <c r="I382" t="n">
         <v>0</v>
@@ -28119,10 +27373,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:23:14</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44265.59946759259</v>
       </c>
       <c r="I383" t="n">
         <v>0</v>
@@ -28190,10 +27442,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:22:58</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44265.59928240741</v>
       </c>
       <c r="I384" t="n">
         <v>1</v>
@@ -28269,10 +27519,8 @@
           <t>4245816894</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:22:54</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44265.59923611111</v>
       </c>
       <c r="I385" t="n">
         <v>13</v>
@@ -28342,10 +27590,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:22:01</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44265.59862268518</v>
       </c>
       <c r="I386" t="n">
         <v>1904</v>
@@ -28409,10 +27655,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:21:48</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44265.59847222222</v>
       </c>
       <c r="I387" t="n">
         <v>0</v>
@@ -28484,10 +27728,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:21:42</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44265.59840277778</v>
       </c>
       <c r="I388" t="n">
         <v>0</v>
@@ -28559,10 +27801,8 @@
           <t>4245808293</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:21:41</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44265.5983912037</v>
       </c>
       <c r="I389" t="n">
         <v>9</v>
@@ -28638,10 +27878,8 @@
           <t>4245807660</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:21:00</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44265.59791666667</v>
       </c>
       <c r="I390" t="n">
         <v>1</v>
@@ -28709,10 +27947,8 @@
           <t>4245815112</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:20:59</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44265.5979050926</v>
       </c>
       <c r="I391" t="n">
         <v>1</v>
@@ -28788,10 +28024,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:19:55</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44265.59716435185</v>
       </c>
       <c r="I392" t="n">
         <v>1</v>
@@ -28863,10 +28097,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:19:55</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44265.59716435185</v>
       </c>
       <c r="I393" t="n">
         <v>2</v>
@@ -28942,10 +28174,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:19:12</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44265.59666666666</v>
       </c>
       <c r="I394" t="n">
         <v>0</v>
@@ -29021,10 +28251,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:18:16</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44265.59601851852</v>
       </c>
       <c r="I395" t="n">
         <v>0</v>
@@ -29096,10 +28324,8 @@
           <t>4245802169</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:17:49</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44265.59570601852</v>
       </c>
       <c r="I396" t="n">
         <v>1</v>
@@ -29167,10 +28393,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:17:32</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44265.59550925926</v>
       </c>
       <c r="I397" t="n">
         <v>0</v>
@@ -29246,10 +28470,8 @@
           <t>4245791973</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:17:04</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44265.59518518519</v>
       </c>
       <c r="I398" t="n">
         <v>1</v>
@@ -29321,10 +28543,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:16:59</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44265.59512731482</v>
       </c>
       <c r="I399" t="n">
         <v>2</v>
@@ -29392,10 +28612,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:15:51</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44265.59434027778</v>
       </c>
       <c r="I400" t="n">
         <v>5</v>
@@ -29471,10 +28689,8 @@
           <t>4245791973</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:15:00</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44265.59375</v>
       </c>
       <c r="I401" t="n">
         <v>1</v>
@@ -29546,10 +28762,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:14:32</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44265.59342592592</v>
       </c>
       <c r="I402" t="n">
         <v>1</v>
@@ -29617,10 +28831,8 @@
           <t>4245788445</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:13:57</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44265.59302083333</v>
       </c>
       <c r="I403" t="n">
         <v>4</v>
@@ -29692,10 +28904,8 @@
           <t>4245787990</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:13:28</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44265.59268518518</v>
       </c>
       <c r="I404" t="n">
         <v>1</v>
@@ -29771,10 +28981,8 @@
           <t>4245790380</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:13:20</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44265.59259259259</v>
       </c>
       <c r="I405" t="n">
         <v>17</v>
@@ -29842,10 +29050,8 @@
           <t>4245790357</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:13:19</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44265.59258101852</v>
       </c>
       <c r="I406" t="n">
         <v>9</v>
@@ -29913,10 +29119,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:13:00</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44265.59236111111</v>
       </c>
       <c r="I407" t="n">
         <v>0</v>
@@ -29984,10 +29188,8 @@
           <t>4245787374</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:12:50</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44265.59224537037</v>
       </c>
       <c r="I408" t="n">
         <v>0</v>
@@ -30055,10 +29257,8 @@
           <t>4245783726</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:12:48</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44265.59222222222</v>
       </c>
       <c r="I409" t="n">
         <v>1</v>
@@ -30130,10 +29330,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:12:32</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44265.59203703704</v>
       </c>
       <c r="I410" t="n">
         <v>0</v>
@@ -30205,10 +29403,8 @@
           <t>4245786921</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:12:23</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44265.59193287037</v>
       </c>
       <c r="I411" t="n">
         <v>8</v>
@@ -30276,10 +29472,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:12:09</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44265.59177083334</v>
       </c>
       <c r="I412" t="n">
         <v>5</v>
@@ -30355,10 +29549,8 @@
           <t>4245786194</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:11:38</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44265.59141203704</v>
       </c>
       <c r="I413" t="n">
         <v>0</v>
@@ -30434,10 +29626,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:11:07</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44265.59105324074</v>
       </c>
       <c r="I414" t="n">
         <v>0</v>
@@ -30514,10 +29704,8 @@
           <t>4245785454</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:10:50</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44265.59085648148</v>
       </c>
       <c r="I415" t="n">
         <v>7</v>
@@ -30593,10 +29781,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:08:28</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44265.58921296296</v>
       </c>
       <c r="I416" t="n">
         <v>66</v>
@@ -30674,10 +29860,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:08:26</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44265.58918981482</v>
       </c>
       <c r="I417" t="n">
         <v>561</v>
@@ -30758,10 +29942,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:08:03</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44265.58892361111</v>
       </c>
       <c r="I418" t="n">
         <v>80</v>
@@ -30833,10 +30015,8 @@
           <t>4245772668</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:08:00</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44265.58888888889</v>
       </c>
       <c r="I419" t="n">
         <v>23</v>
@@ -30900,10 +30080,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:07:41</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44265.58866898148</v>
       </c>
       <c r="I420" t="n">
         <v>48</v>
@@ -30967,10 +30145,8 @@
           <t>4245768536</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:07:16</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44265.58837962963</v>
       </c>
       <c r="I421" t="n">
         <v>14</v>
@@ -31038,10 +30214,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:06:47</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44265.58804398148</v>
       </c>
       <c r="I422" t="n">
         <v>0</v>
@@ -31117,10 +30291,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:06:46</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44265.58803240741</v>
       </c>
       <c r="I423" t="n">
         <v>0</v>
@@ -31192,10 +30364,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:05:47</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44265.58734953704</v>
       </c>
       <c r="I424" t="n">
         <v>1</v>
@@ -31271,10 +30441,8 @@
           <t>4245770297</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:05:34</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44265.58719907407</v>
       </c>
       <c r="I425" t="n">
         <v>1</v>
@@ -31350,10 +30518,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:05:23</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44265.58707175926</v>
       </c>
       <c r="I426" t="n">
         <v>1</v>
@@ -31429,10 +30595,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:05:13</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44265.58695601852</v>
       </c>
       <c r="I427" t="n">
         <v>0</v>
@@ -31500,10 +30664,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:04:57</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44265.58677083333</v>
       </c>
       <c r="I428" t="n">
         <v>16</v>
@@ -31572,10 +30734,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:04:17</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44265.58630787037</v>
       </c>
       <c r="I429" t="n">
         <v>1</v>
@@ -31639,10 +30799,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:02:43</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44265.58521990741</v>
       </c>
       <c r="I430" t="n">
         <v>2</v>
@@ -31716,10 +30874,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:02:28</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44265.5850462963</v>
       </c>
       <c r="I431" t="n">
         <v>259</v>
@@ -31783,10 +30939,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:02:25</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44265.58501157408</v>
       </c>
       <c r="I432" t="n">
         <v>0</v>
@@ -31862,10 +31016,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:02:03</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44265.58475694444</v>
       </c>
       <c r="I433" t="n">
         <v>0</v>
@@ -31941,10 +31093,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:01:45</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44265.58454861111</v>
       </c>
       <c r="I434" t="n">
         <v>1</v>
@@ -32020,10 +31170,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:01:33</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44265.58440972222</v>
       </c>
       <c r="I435" t="n">
         <v>0</v>
@@ -32099,10 +31247,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:01:19</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44265.58424768518</v>
       </c>
       <c r="I436" t="n">
         <v>148</v>
@@ -32170,10 +31316,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:01:04</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44265.58407407408</v>
       </c>
       <c r="I437" t="n">
         <v>1</v>
@@ -32241,10 +31385,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:00:52</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44265.58393518518</v>
       </c>
       <c r="I438" t="n">
         <v>965</v>
@@ -32321,10 +31463,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:00:47</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44265.58387731481</v>
       </c>
       <c r="I439" t="n">
         <v>1</v>
@@ -32400,10 +31540,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:00:42</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44265.58381944444</v>
       </c>
       <c r="I440" t="n">
         <v>1</v>
@@ -32479,10 +31617,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:00:40</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44265.5837962963</v>
       </c>
       <c r="I441" t="n">
         <v>0</v>
@@ -32546,10 +31682,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2021-03-10 14:00:26</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44265.58363425926</v>
       </c>
       <c r="I442" t="n">
         <v>0</v>
